--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12975"/>
+    <workbookView windowWidth="27660" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="ItemConfig" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ItemConfig!$A$4:$D$92</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -135,7 +148,7 @@
     <t>粮食</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_1</t>
+    <t>ui://ItemPKG/item_1</t>
   </si>
   <si>
     <t>通用资源，可在主城中生产或在玩法中获得</t>
@@ -144,19 +157,19 @@
     <t>木材</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2</t>
+    <t>ui://ItemPKG/item_2</t>
   </si>
   <si>
     <t>铁矿</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_3</t>
+    <t>ui://ItemPKG/item_3</t>
   </si>
   <si>
     <t>石料</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_4</t>
+    <t>ui://ItemPKG/item_4</t>
   </si>
   <si>
     <t>金币</t>
@@ -168,7 +181,7 @@
     <t>友情币</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_5</t>
+    <t>ui://ItemPKG/item_5</t>
   </si>
   <si>
     <t>好友互赠获得</t>
@@ -177,7 +190,7 @@
     <t>策略值</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_8</t>
+    <t>ui://ItemPKG/item_8</t>
   </si>
   <si>
     <t>无</t>
@@ -186,7 +199,7 @@
     <t>启灵珠</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_7</t>
+    <t>ui://ItemPKG/item_7</t>
   </si>
   <si>
     <t>使用启灵珠，可在启灵台进行启灵</t>
@@ -195,7 +208,7 @@
     <t>阵营券</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_10</t>
+    <t>ui://ItemPKG/item_10</t>
   </si>
   <si>
     <t>使用阵营券，可在启灵台进行阵营启灵</t>
@@ -204,7 +217,7 @@
     <t>限时启灵珠</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_11</t>
+    <t>ui://ItemPKG/item_11</t>
   </si>
   <si>
     <t>使用限时券，可在启灵台进行限时启灵</t>
@@ -213,7 +226,7 @@
     <t>钻石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_12</t>
+    <t>ui://ItemPKG/item_12</t>
   </si>
   <si>
     <t>游戏内通用货币，可通过充值可获得</t>
@@ -222,7 +235,7 @@
     <t>绑钻</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_13</t>
+    <t>ui://ItemPKG/item_13</t>
   </si>
   <si>
     <t>游戏内通用货币，完成任务可获得</t>
@@ -231,7 +244,7 @@
     <t>预备兵</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_14</t>
+    <t>ui://ItemPKG/item_14</t>
   </si>
   <si>
     <t>可增加兵营预备兵数量</t>
@@ -240,7 +253,7 @@
     <t>攻城令</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_19</t>
+    <t>ui://ItemPKG/item_19</t>
   </si>
   <si>
     <t>弃用</t>
@@ -249,7 +262,7 @@
     <t>活跃度</t>
   </si>
   <si>
-    <t>ui://01_4_prop/icon_activation</t>
+    <t>ui://ItemPKG/icon_activation</t>
   </si>
   <si>
     <t>通过完成每日任务领取到活跃度，累积到一定数量可领取每日宝箱奖励。\n每日刷新</t>
@@ -261,7 +274,7 @@
     <t>竞技积分</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_21</t>
+    <t>ui://ItemPKG/item_21</t>
   </si>
   <si>
     <t>竞技场获得</t>
@@ -270,7 +283,7 @@
     <t>联盟贡献</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_22</t>
+    <t>ui://ItemPKG/item_22</t>
   </si>
   <si>
     <t>贡献</t>
@@ -279,7 +292,7 @@
     <t>体力</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_23</t>
+    <t>ui://ItemPKG/item_23</t>
   </si>
   <si>
     <t>挑战秘典需消耗体力，可购买或自动恢复</t>
@@ -288,7 +301,7 @@
     <t>武将经验（加武将身上的）</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_24</t>
+    <t>ui://ItemPKG/item_24</t>
   </si>
   <si>
     <t>武将经验</t>
@@ -315,7 +328,7 @@
     <t>科技点</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_31</t>
+    <t>ui://ItemPKG/item_31</t>
   </si>
   <si>
     <t>科技点能够通过联盟成员捐献获得；科技点集满后，联盟盟主或官员可开启该联盟科技的研究</t>
@@ -324,7 +337,7 @@
     <t>个人积分</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_33</t>
+    <t>ui://ItemPKG/item_33</t>
   </si>
   <si>
     <t>个人积分用于联盟商店购买道具；可通过帮助盟友,科技捐献,联盟圣兽等活动获得</t>
@@ -333,7 +346,7 @@
     <t>联盟积分</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_34</t>
+    <t>ui://ItemPKG/item_34</t>
   </si>
   <si>
     <t>联盟积分用于建造联盟建筑；可通过帮助盟友,科技捐献,联盟圣兽等活动获得</t>
@@ -342,13 +355,13 @@
     <t>英雄天赋点</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_35</t>
+    <t>ui://ItemPKG/item_35</t>
   </si>
   <si>
     <t>幸运石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_36</t>
+    <t>ui://ItemPKG/item_36</t>
   </si>
   <si>
     <t>提升铁匠铺锻造橙装概率，可从刻耳帕洛、联盟圣兽获得</t>
@@ -357,7 +370,7 @@
     <t>装备券</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_10008</t>
+    <t>ui://ItemPKG/item_10008</t>
   </si>
   <si>
     <t>使用装备券，可在启灵台进行装备启灵</t>
@@ -366,7 +379,7 @@
     <t>虚空碎片</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_38</t>
+    <t>ui://ItemPKG/item_38</t>
   </si>
   <si>
     <t>英雄们通过收集各地的虚空碎片来合成虚空之心，企图填补破碎之门，来防止地底世界的厄运军团继续入侵，但却受到了厄运军团的顽抗骚扰</t>
@@ -375,7 +388,7 @@
     <t>神器</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_39</t>
+    <t>ui://ItemPKG/item_39</t>
   </si>
   <si>
     <t>升级高级技能所需的必备材料</t>
@@ -384,7 +397,7 @@
     <t>英雄积分</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_40</t>
+    <t>ui://ItemPKG/item_40</t>
   </si>
   <si>
     <t>可在英雄商店购买道具，在统帅厅分解英魂可获得</t>
@@ -393,7 +406,7 @@
     <t>刻耳帕洛挑战券</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_41</t>
+    <t>ui://ItemPKG/item_41</t>
   </si>
   <si>
     <t>可以额外获得一次挑战次数</t>
@@ -402,7 +415,7 @@
     <t>战令经验</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_token25</t>
+    <t>ui://ItemPKG/item_token25</t>
   </si>
   <si>
     <t>可用于提升战令等级，完成战令任务或充值可获得</t>
@@ -411,7 +424,7 @@
     <t>战令币</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_44</t>
+    <t>ui://ItemPKG/item_44</t>
   </si>
   <si>
     <t>战令达到指定等级的奖励，可在训练营中训练暴击技能时使用</t>
@@ -420,7 +433,7 @@
     <t>高级启灵珠</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60</t>
+    <t>ui://ItemPKG/item_60</t>
   </si>
   <si>
     <t>使用后可进行专属的金色品质英雄启灵</t>
@@ -429,7 +442,7 @@
     <t>极品启灵珠</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_61</t>
+    <t>ui://ItemPKG/item_61</t>
   </si>
   <si>
     <t>使用后可进行专属的红色品质英雄启灵</t>
@@ -438,7 +451,7 @@
     <t>玄石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_47</t>
+    <t>ui://ItemPKG/item_47</t>
   </si>
   <si>
     <t>完成每日任务，达到指定积分后可领取；可在限时市集售卖后获得启源币</t>
@@ -447,7 +460,7 @@
     <t>启源币</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_48</t>
+    <t>ui://ItemPKG/item_48</t>
   </si>
   <si>
     <t>可在限时市集刷新奖励，通过限时市集出售玄石获得</t>
@@ -456,7 +469,7 @@
     <t>圣灵积分</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_49</t>
+    <t>ui://ItemPKG/item_49</t>
   </si>
   <si>
     <t>圣灵积分达到条件可领取丰厚奖励，完成三日成长任务可获得</t>
@@ -465,7 +478,7 @@
     <t>部队解锁卡</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_50</t>
+    <t>ui://ItemPKG/item_50</t>
   </si>
   <si>
     <t>可直接解锁下一支部队</t>
@@ -474,7 +487,7 @@
     <t>迷雾解锁卡</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_51</t>
+    <t>ui://ItemPKG/item_51</t>
   </si>
   <si>
     <t>可直接开启一块未解锁的迷雾</t>
@@ -483,7 +496,7 @@
     <t>随机礼包测试1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_17</t>
+    <t>ui://ItemPKG/item_17</t>
   </si>
   <si>
     <t>测试%s</t>
@@ -516,7 +529,7 @@
     <t>荣耀勋章</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_11004</t>
+    <t>ui://ItemPKG/item_11004</t>
   </si>
   <si>
     <t>记录着所有荣耀的道具~集齐一定数量可领取超值奖励。通过各类玩法获得</t>
@@ -525,7 +538,7 @@
     <t>龙蛋</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_58</t>
+    <t>ui://ItemPKG/item_58</t>
   </si>
   <si>
     <t>圣龙的后裔，大陆的未来</t>
@@ -537,7 +550,7 @@
     <t>喇叭</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_10001</t>
+    <t>ui://ItemPKG/item_10001</t>
   </si>
   <si>
     <t>使用后可在世界频道发送广播</t>
@@ -546,7 +559,7 @@
     <t>蜡烛</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_10002</t>
+    <t>ui://ItemPKG/item_10002</t>
   </si>
   <si>
     <t>使用后可增加1次教堂免费祈祷次数</t>
@@ -561,7 +574,7 @@
     <t>定点迁城</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_10004</t>
+    <t>ui://ItemPKG/item_10004</t>
   </si>
   <si>
     <t>将您的城市迁往指定目的地（使用后将在当前屏幕中心出现新城市，拖动或点击地格选择迁城位置）</t>
@@ -570,7 +583,7 @@
     <t>随机迁城</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_10005</t>
+    <t>ui://ItemPKG/item_10005</t>
   </si>
   <si>
     <t>将您的城市迁往随机目的地</t>
@@ -579,7 +592,7 @@
     <t>领土迁城</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_10006</t>
+    <t>ui://ItemPKG/item_10006</t>
   </si>
   <si>
     <t>将您的城市迁往地图上联盟领土内的指定目的地（使用后将在当前屏幕中心出现新城市，拖动或点击地格选择迁城位置）</t>
@@ -588,7 +601,7 @@
     <t>24小时队列卡</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_10007</t>
+    <t>ui://ItemPKG/item_10007</t>
   </si>
   <si>
     <t>使用后可激活1次免费队列</t>
@@ -603,7 +616,7 @@
     <t>进阶典藏卡</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_10009</t>
+    <t>ui://ItemPKG/item_10009</t>
   </si>
   <si>
     <t>使用后激活典藏版战令</t>
@@ -648,49 +661,49 @@
     <t>1级市集礼盒</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_30010</t>
+    <t>ui://ItemPKG/item_30010</t>
   </si>
   <si>
     <t>2级市集礼盒</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_30011</t>
+    <t>ui://ItemPKG/item_30011</t>
   </si>
   <si>
     <t>3级市集礼盒</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_30012</t>
+    <t>ui://ItemPKG/item_30012</t>
   </si>
   <si>
     <t>4级市集礼盒</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_30013</t>
+    <t>ui://ItemPKG/item_30013</t>
   </si>
   <si>
     <t>5级市集礼盒</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_30014</t>
+    <t>ui://ItemPKG/item_30014</t>
   </si>
   <si>
     <t>1级战令礼包</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_31001</t>
+    <t>ui://ItemPKG/item_31001</t>
   </si>
   <si>
     <t>7级战令礼包</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_31002</t>
+    <t>ui://ItemPKG/item_31002</t>
   </si>
   <si>
     <t>14级战令礼包</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_31003</t>
+    <t>ui://ItemPKG/item_31003</t>
   </si>
   <si>
     <t>22级战令礼包</t>
@@ -744,7 +757,7 @@
     <t>钻石随机礼包</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_4003</t>
+    <t>ui://ItemPKG/item_4003</t>
   </si>
   <si>
     <t>使用后可随机获得1个钻石礼包</t>
@@ -753,7 +766,7 @@
     <t>60钻礼包</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_40002</t>
+    <t>ui://ItemPKG/item_40002</t>
   </si>
   <si>
     <t>使用后可获得60钻</t>
@@ -792,7 +805,7 @@
     <t>稀有英魂自选宝箱</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_40008</t>
+    <t>ui://ItemPKG/item_40008</t>
   </si>
   <si>
     <t>自选一个稀有英雄英魂</t>
@@ -801,7 +814,7 @@
     <t>随机传奇英魂</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_40009</t>
+    <t>ui://ItemPKG/item_40009</t>
   </si>
   <si>
     <t>传奇英魂</t>
@@ -810,7 +823,7 @@
     <t>随机史诗英魂</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_40010</t>
+    <t>ui://ItemPKG/item_40010</t>
   </si>
   <si>
     <t>史诗英魂</t>
@@ -846,205 +859,205 @@
     <t>英雄突破材料</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60005</t>
+    <t>ui://ItemPKG/item_60005</t>
   </si>
   <si>
     <t>英雄装备，用于转生突破，参与秘典获得</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60065</t>
+    <t>ui://ItemPKG/item_60065</t>
   </si>
   <si>
     <t>短剑</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60001</t>
+    <t>ui://ItemPKG/item_60001</t>
   </si>
   <si>
     <t>木弓</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60011</t>
+    <t>ui://ItemPKG/item_60011</t>
   </si>
   <si>
     <t>木杖</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60021</t>
+    <t>ui://ItemPKG/item_60021</t>
   </si>
   <si>
     <t>学徒披风</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60041</t>
+    <t>ui://ItemPKG/item_60041</t>
   </si>
   <si>
     <t>试炼木盾</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60051</t>
+    <t>ui://ItemPKG/item_60051</t>
   </si>
   <si>
     <t>新兵盔甲</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60061</t>
+    <t>ui://ItemPKG/item_60061</t>
   </si>
   <si>
     <t>灵巧之戒</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60071</t>
+    <t>ui://ItemPKG/item_60071</t>
   </si>
   <si>
     <t>草鞋</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60081</t>
+    <t>ui://ItemPKG/item_60081</t>
   </si>
   <si>
     <t>长剑</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60002</t>
+    <t>ui://ItemPKG/item_60002</t>
   </si>
   <si>
     <t>长弓</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60012</t>
+    <t>ui://ItemPKG/item_60012</t>
   </si>
   <si>
     <t>法杖</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60022</t>
+    <t>ui://ItemPKG/item_60022</t>
   </si>
   <si>
     <t>精致披风</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60042</t>
+    <t>ui://ItemPKG/item_60042</t>
   </si>
   <si>
     <t>圆盾</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60052</t>
+    <t>ui://ItemPKG/item_60052</t>
   </si>
   <si>
     <t>精致盔甲</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60062</t>
+    <t>ui://ItemPKG/item_60062</t>
   </si>
   <si>
     <t>智慧之匙</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60072</t>
+    <t>ui://ItemPKG/item_60072</t>
   </si>
   <si>
     <t>皮靴</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60082</t>
+    <t>ui://ItemPKG/item_60082</t>
   </si>
   <si>
     <t>精铁剑</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60003</t>
+    <t>ui://ItemPKG/item_60003</t>
   </si>
   <si>
     <t>合金弓</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60013</t>
+    <t>ui://ItemPKG/item_60013</t>
   </si>
   <si>
     <t>灵杖</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60023</t>
+    <t>ui://ItemPKG/item_60023</t>
   </si>
   <si>
     <t>灵巧披风</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60043</t>
+    <t>ui://ItemPKG/item_60043</t>
   </si>
   <si>
     <t>合金盾</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60053</t>
+    <t>ui://ItemPKG/item_60053</t>
   </si>
   <si>
     <t>魔法重铠</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60063</t>
+    <t>ui://ItemPKG/item_60063</t>
   </si>
   <si>
     <t>坚韧之心</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60073</t>
+    <t>ui://ItemPKG/item_60073</t>
   </si>
   <si>
     <t>速度之靴</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60083</t>
+    <t>ui://ItemPKG/item_60083</t>
   </si>
   <si>
     <t>水晶剑</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60004</t>
+    <t>ui://ItemPKG/item_60004</t>
   </si>
   <si>
     <t>流星弓</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60014</t>
+    <t>ui://ItemPKG/item_60014</t>
   </si>
   <si>
     <t>水晶杖</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60024</t>
+    <t>ui://ItemPKG/item_60024</t>
   </si>
   <si>
     <t>魔力披风</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60044</t>
+    <t>ui://ItemPKG/item_60044</t>
   </si>
   <si>
     <t>魔法盾</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60054</t>
+    <t>ui://ItemPKG/item_60054</t>
   </si>
   <si>
     <t>高塔战铠</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60064</t>
+    <t>ui://ItemPKG/item_60064</t>
   </si>
   <si>
     <t>勇气之证</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60074</t>
+    <t>ui://ItemPKG/item_60074</t>
   </si>
   <si>
     <t>疾行之靴</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60084</t>
+    <t>ui://ItemPKG/item_60084</t>
   </si>
   <si>
     <t>圣剑</t>
@@ -1053,25 +1066,25 @@
     <t>神圣弓</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60015</t>
+    <t>ui://ItemPKG/item_60015</t>
   </si>
   <si>
     <t>神圣法杖</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60025</t>
+    <t>ui://ItemPKG/item_60025</t>
   </si>
   <si>
     <t>神圣披风</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60045</t>
+    <t>ui://ItemPKG/item_60045</t>
   </si>
   <si>
     <t>神圣盾牌</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60055</t>
+    <t>ui://ItemPKG/item_60055</t>
   </si>
   <si>
     <t>神圣战铠</t>
@@ -1080,121 +1093,121 @@
     <t>神圣法印</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60075</t>
+    <t>ui://ItemPKG/item_60075</t>
   </si>
   <si>
     <t>神速靴</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60085</t>
+    <t>ui://ItemPKG/item_60085</t>
   </si>
   <si>
     <t>光明神器</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60006</t>
+    <t>ui://ItemPKG/item_60006</t>
   </si>
   <si>
     <t>光明铠甲</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60066</t>
+    <t>ui://ItemPKG/item_60066</t>
   </si>
   <si>
     <t>光明之石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60076</t>
+    <t>ui://ItemPKG/item_60076</t>
   </si>
   <si>
     <t>圣光靴</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60086</t>
+    <t>ui://ItemPKG/item_60086</t>
   </si>
   <si>
     <t>疾行之靴卷轴</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_600911</t>
+    <t>ui://ItemPKG/item_600911</t>
   </si>
   <si>
     <t>圣剑卷轴</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60091</t>
+    <t>ui://ItemPKG/item_60091</t>
   </si>
   <si>
     <t>神圣弓卷轴</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60092</t>
+    <t>ui://ItemPKG/item_60092</t>
   </si>
   <si>
     <t>神圣法杖卷轴</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60093</t>
+    <t>ui://ItemPKG/item_60093</t>
   </si>
   <si>
     <t>神圣披风卷轴</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60095</t>
+    <t>ui://ItemPKG/item_60095</t>
   </si>
   <si>
     <t>神圣盾牌卷轴</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60096</t>
+    <t>ui://ItemPKG/item_60096</t>
   </si>
   <si>
     <t>神圣战铠卷轴</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60097</t>
+    <t>ui://ItemPKG/item_60097</t>
   </si>
   <si>
     <t>神圣法印卷轴</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60099</t>
+    <t>ui://ItemPKG/item_60099</t>
   </si>
   <si>
     <t>神速靴卷轴</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_600912</t>
+    <t>ui://ItemPKG/item_600912</t>
   </si>
   <si>
     <t>光明神器卷轴</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60094</t>
+    <t>ui://ItemPKG/item_60094</t>
   </si>
   <si>
     <t>光明铠甲卷轴</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_60098</t>
+    <t>ui://ItemPKG/item_60098</t>
   </si>
   <si>
     <t>光明之石卷轴</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_600910</t>
+    <t>ui://ItemPKG/item_600910</t>
   </si>
   <si>
     <t>圣光靴卷轴</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_600913</t>
+    <t>ui://ItemPKG/item_600913</t>
   </si>
   <si>
     <t>1分钟加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2001</t>
+    <t>ui://ItemPKG/item_2001</t>
   </si>
   <si>
     <t>可减少城建或学院研究1分钟剩余时间</t>
@@ -1203,7 +1216,7 @@
     <t>5分钟加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2201</t>
+    <t>ui://ItemPKG/item_2201</t>
   </si>
   <si>
     <t>可减少城建或学院研究5分钟剩余时间</t>
@@ -1212,7 +1225,7 @@
     <t>15分钟加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2002</t>
+    <t>ui://ItemPKG/item_2002</t>
   </si>
   <si>
     <t>可减少城建或学院研究15分钟剩余时间</t>
@@ -1221,7 +1234,7 @@
     <t>1小时加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2003</t>
+    <t>ui://ItemPKG/item_2003</t>
   </si>
   <si>
     <t>可减少城建或学院研究1小时剩余时间</t>
@@ -1230,7 +1243,7 @@
     <t>3小时加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2004</t>
+    <t>ui://ItemPKG/item_2004</t>
   </si>
   <si>
     <t>可减少城建或学院研究3小时剩余时间</t>
@@ -1239,7 +1252,7 @@
     <t>8小时加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2005</t>
+    <t>ui://ItemPKG/item_2005</t>
   </si>
   <si>
     <t>可减少城建或学院研究8小时剩余时间</t>
@@ -1248,7 +1261,7 @@
     <t>15小时加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2006</t>
+    <t>ui://ItemPKG/item_2006</t>
   </si>
   <si>
     <t>可减少城建或学院研究15小时剩余时间</t>
@@ -1257,7 +1270,7 @@
     <t>24小时加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2007</t>
+    <t>ui://ItemPKG/item_2007</t>
   </si>
   <si>
     <t>可减少城建或学院研究24小时剩余时间</t>
@@ -1266,7 +1279,7 @@
     <t>3天加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2008</t>
+    <t>ui://ItemPKG/item_2008</t>
   </si>
   <si>
     <t>可减少城建或学院研究3天剩余时间</t>
@@ -1275,7 +1288,7 @@
     <t>7天加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2009</t>
+    <t>ui://ItemPKG/item_2009</t>
   </si>
   <si>
     <t>可减少城建或学院研究7天剩余时间</t>
@@ -1284,7 +1297,7 @@
     <t>30天加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2010</t>
+    <t>ui://ItemPKG/item_2010</t>
   </si>
   <si>
     <t>可减少城建或学院研究30天剩余时间</t>
@@ -1293,7 +1306,7 @@
     <t>1分钟科技加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2011</t>
+    <t>ui://ItemPKG/item_2011</t>
   </si>
   <si>
     <t>可减少学院研究1分钟剩余时间</t>
@@ -1302,7 +1315,7 @@
     <t>5分钟科技加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2202</t>
+    <t>ui://ItemPKG/item_2202</t>
   </si>
   <si>
     <t>可减少学院研究5分钟剩余时间</t>
@@ -1311,7 +1324,7 @@
     <t>15分钟科技加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2012</t>
+    <t>ui://ItemPKG/item_2012</t>
   </si>
   <si>
     <t>可减少学院研究15分钟剩余时间</t>
@@ -1320,7 +1333,7 @@
     <t>1小时科技加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2013</t>
+    <t>ui://ItemPKG/item_2013</t>
   </si>
   <si>
     <t>可减少学院研究1小时剩余时间</t>
@@ -1329,7 +1342,7 @@
     <t>3小时科技加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2014</t>
+    <t>ui://ItemPKG/item_2014</t>
   </si>
   <si>
     <t>可减少学院研究2小时剩余时间</t>
@@ -1338,7 +1351,7 @@
     <t>8小时科技加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2015</t>
+    <t>ui://ItemPKG/item_2015</t>
   </si>
   <si>
     <t>可减少学院研究8小时剩余时间</t>
@@ -1347,7 +1360,7 @@
     <t>15小时科技加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2016</t>
+    <t>ui://ItemPKG/item_2016</t>
   </si>
   <si>
     <t>可减少学院研究12小时剩余时间</t>
@@ -1356,7 +1369,7 @@
     <t>24小时科技加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2017</t>
+    <t>ui://ItemPKG/item_2017</t>
   </si>
   <si>
     <t>可减少学院研究24小时剩余时间</t>
@@ -1365,7 +1378,7 @@
     <t>3天科技加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2018</t>
+    <t>ui://ItemPKG/item_2018</t>
   </si>
   <si>
     <t>可减少学院研究3天剩余时间</t>
@@ -1374,7 +1387,7 @@
     <t>7天科技加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2019</t>
+    <t>ui://ItemPKG/item_2019</t>
   </si>
   <si>
     <t>可减少学院研究7天剩余时间</t>
@@ -1383,7 +1396,7 @@
     <t>30天科技加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2020</t>
+    <t>ui://ItemPKG/item_2020</t>
   </si>
   <si>
     <t>可减少学院研究30天剩余时间</t>
@@ -1392,7 +1405,7 @@
     <t>1分钟建筑加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2021</t>
+    <t>ui://ItemPKG/item_2021</t>
   </si>
   <si>
     <t>可减少城建1分钟剩余时间</t>
@@ -1401,7 +1414,7 @@
     <t>5分钟建筑加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2203</t>
+    <t>ui://ItemPKG/item_2203</t>
   </si>
   <si>
     <t>可减少城建5分钟剩余时间</t>
@@ -1410,7 +1423,7 @@
     <t>15分钟建筑加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2022</t>
+    <t>ui://ItemPKG/item_2022</t>
   </si>
   <si>
     <t>可减少城建15分钟剩余时间</t>
@@ -1419,7 +1432,7 @@
     <t>1小时建筑加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2023</t>
+    <t>ui://ItemPKG/item_2023</t>
   </si>
   <si>
     <t>可减少城建1小时剩余时间</t>
@@ -1428,7 +1441,7 @@
     <t>3小时建筑加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2024</t>
+    <t>ui://ItemPKG/item_2024</t>
   </si>
   <si>
     <t>可减少城建2小时剩余时间</t>
@@ -1437,7 +1450,7 @@
     <t>8小时建筑加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2025</t>
+    <t>ui://ItemPKG/item_2025</t>
   </si>
   <si>
     <t>可减少城建8小时剩余时间</t>
@@ -1446,7 +1459,7 @@
     <t>15小时建筑加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2026</t>
+    <t>ui://ItemPKG/item_2026</t>
   </si>
   <si>
     <t>可减少城建12小时剩余时间</t>
@@ -1455,7 +1468,7 @@
     <t>24小时建筑加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2027</t>
+    <t>ui://ItemPKG/item_2027</t>
   </si>
   <si>
     <t>可减少城建24小时剩余时间</t>
@@ -1464,7 +1477,7 @@
     <t>3天建筑加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2028</t>
+    <t>ui://ItemPKG/item_2028</t>
   </si>
   <si>
     <t>可减少城建3天剩余时间</t>
@@ -1473,13 +1486,13 @@
     <t>7天建筑加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2029</t>
+    <t>ui://ItemPKG/item_2029</t>
   </si>
   <si>
     <t>可减少城建7天剩余时间</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2030</t>
+    <t>ui://ItemPKG/item_2030</t>
   </si>
   <si>
     <t>可减少城建30天剩余时间</t>
@@ -1488,7 +1501,7 @@
     <t>8小时免战</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2101</t>
+    <t>ui://ItemPKG/item_2101</t>
   </si>
   <si>
     <t>获得8小时免战状态，在此期间敌人无法侦察或进攻您的城池</t>
@@ -1497,7 +1510,7 @@
     <t>24小时免战</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2102</t>
+    <t>ui://ItemPKG/item_2102</t>
   </si>
   <si>
     <t>获得24小时免战状态，在此期间敌人无法侦察或进攻您的城池</t>
@@ -1506,7 +1519,7 @@
     <t>8小时瞒天过海</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2103</t>
+    <t>ui://ItemPKG/item_2103</t>
   </si>
   <si>
     <t>获得8小时防侦察状态，在此期间敌人无法侦察您的城池</t>
@@ -1515,7 +1528,7 @@
     <t>24小时瞒天过海</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2104</t>
+    <t>ui://ItemPKG/item_2104</t>
   </si>
   <si>
     <t>获得24小时防侦察状态，在此期间敌人无法侦察您的城池</t>
@@ -1524,7 +1537,7 @@
     <t>24小时采集加速</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2105</t>
+    <t>ui://ItemPKG/item_2105</t>
   </si>
   <si>
     <t>24小时内资源采集速度提升50%，不可叠加</t>
@@ -1533,7 +1546,7 @@
     <t>8小时粮食增产</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2301</t>
+    <t>ui://ItemPKG/item_2301</t>
   </si>
   <si>
     <t>8小时资源生产提升15%</t>
@@ -1542,7 +1555,7 @@
     <t>24小时粮食增产</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2302</t>
+    <t>ui://ItemPKG/item_2302</t>
   </si>
   <si>
     <t>24小时资源生产提升15%</t>
@@ -1551,43 +1564,43 @@
     <t>8小时木材增产</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2303</t>
+    <t>ui://ItemPKG/item_2303</t>
   </si>
   <si>
     <t>24小时木材增产</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2304</t>
+    <t>ui://ItemPKG/item_2304</t>
   </si>
   <si>
     <t>8小时铁矿增产</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2305</t>
+    <t>ui://ItemPKG/item_2305</t>
   </si>
   <si>
     <t>24小时铁矿增产</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2306</t>
+    <t>ui://ItemPKG/item_2306</t>
   </si>
   <si>
     <t>8小时金矿增产</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2307</t>
+    <t>ui://ItemPKG/item_2307</t>
   </si>
   <si>
     <t>24小时金矿增产</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_23058</t>
+    <t>ui://ItemPKG/item_23058</t>
   </si>
   <si>
     <t>100粮食</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2401</t>
+    <t>ui://ItemPKG/item_2401</t>
   </si>
   <si>
     <t>使用后获得100粮食</t>
@@ -1602,7 +1615,7 @@
     <t>5,000粮食</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2402</t>
+    <t>ui://ItemPKG/item_2402</t>
   </si>
   <si>
     <t>1万粮食</t>
@@ -1611,7 +1624,7 @@
     <t>2万粮食</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2403</t>
+    <t>ui://ItemPKG/item_2403</t>
   </si>
   <si>
     <t>2万5千粮食</t>
@@ -1626,19 +1639,19 @@
     <t>5万粮食</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2404</t>
+    <t>ui://ItemPKG/item_2404</t>
   </si>
   <si>
     <t>10万粮食</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2405</t>
+    <t>ui://ItemPKG/item_2405</t>
   </si>
   <si>
     <t>100木材</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2406</t>
+    <t>ui://ItemPKG/item_2406</t>
   </si>
   <si>
     <t>使用后获得100木材</t>
@@ -1653,7 +1666,7 @@
     <t>5,000木材</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2407</t>
+    <t>ui://ItemPKG/item_2407</t>
   </si>
   <si>
     <t>1万木材</t>
@@ -1662,7 +1675,7 @@
     <t>2万木材</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2408</t>
+    <t>ui://ItemPKG/item_2408</t>
   </si>
   <si>
     <t>2万5千木材</t>
@@ -1677,19 +1690,19 @@
     <t>5万木材</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2409</t>
+    <t>ui://ItemPKG/item_2409</t>
   </si>
   <si>
     <t>10万木材</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2410</t>
+    <t>ui://ItemPKG/item_2410</t>
   </si>
   <si>
     <t>100铁矿</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2411</t>
+    <t>ui://ItemPKG/item_2411</t>
   </si>
   <si>
     <t>使用后获得100铁矿</t>
@@ -1704,7 +1717,7 @@
     <t>5,000铁矿</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2412</t>
+    <t>ui://ItemPKG/item_2412</t>
   </si>
   <si>
     <t>1万铁矿</t>
@@ -1713,7 +1726,7 @@
     <t>2万铁矿</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2413</t>
+    <t>ui://ItemPKG/item_2413</t>
   </si>
   <si>
     <t>2万5千铁矿</t>
@@ -1728,19 +1741,19 @@
     <t>5万铁矿</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2414</t>
+    <t>ui://ItemPKG/item_2414</t>
   </si>
   <si>
     <t>10万铁矿</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2415</t>
+    <t>ui://ItemPKG/item_2415</t>
   </si>
   <si>
     <t>25金币</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2416</t>
+    <t>ui://ItemPKG/item_2416</t>
   </si>
   <si>
     <t>50金币</t>
@@ -1749,7 +1762,7 @@
     <t>100金币</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2417</t>
+    <t>ui://ItemPKG/item_2417</t>
   </si>
   <si>
     <t>150金币</t>
@@ -1758,37 +1771,37 @@
     <t>250金币</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2418</t>
+    <t>ui://ItemPKG/item_2418</t>
   </si>
   <si>
     <t>500金币</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2419</t>
+    <t>ui://ItemPKG/item_2419</t>
   </si>
   <si>
     <t>1000金币</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2420</t>
+    <t>ui://ItemPKG/item_2420</t>
   </si>
   <si>
     <t>50体力</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2421</t>
+    <t>ui://ItemPKG/item_2421</t>
   </si>
   <si>
     <t>100体力</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2422</t>
+    <t>ui://ItemPKG/item_2422</t>
   </si>
   <si>
     <t>200体力</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2423</t>
+    <t>ui://ItemPKG/item_2423</t>
   </si>
   <si>
     <t>采集加速</t>
@@ -1812,7 +1825,7 @@
     <t>城建科技</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_1</t>
+    <t>ui://ItemPKG/college_1</t>
   </si>
   <si>
     <t>可研究升级城建科技</t>
@@ -1827,7 +1840,7 @@
     <t>灌溉+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_2</t>
+    <t>ui://ItemPKG/college_2</t>
   </si>
   <si>
     <t>灌溉提升1级</t>
@@ -1836,7 +1849,7 @@
     <t>手锯+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_3</t>
+    <t>ui://ItemPKG/college_3</t>
   </si>
   <si>
     <t>手锯提升1级</t>
@@ -1845,7 +1858,7 @@
     <t>镰刀+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_4</t>
+    <t>ui://ItemPKG/college_4</t>
   </si>
   <si>
     <t>镰刀提升1级</t>
@@ -1854,7 +1867,7 @@
     <t>砖石建筑+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_5</t>
+    <t>ui://ItemPKG/college_5</t>
   </si>
   <si>
     <t>砖石建筑提升1级</t>
@@ -1863,7 +1876,7 @@
     <t>手斧+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_6</t>
+    <t>ui://ItemPKG/college_6</t>
   </si>
   <si>
     <t>手斧提升1级</t>
@@ -1872,7 +1885,7 @@
     <t>冶金术+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_7</t>
+    <t>ui://ItemPKG/college_7</t>
   </si>
   <si>
     <t>冶金术提升1级</t>
@@ -1881,7 +1894,7 @@
     <t>凿石+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_8</t>
+    <t>ui://ItemPKG/college_8</t>
   </si>
   <si>
     <t>凿石提升1级</t>
@@ -1890,7 +1903,7 @@
     <t>科学理论+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_9</t>
+    <t>ui://ItemPKG/college_9</t>
   </si>
   <si>
     <t>科学理论提升1级</t>
@@ -1899,7 +1912,7 @@
     <t>炼金术+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_10</t>
+    <t>ui://ItemPKG/college_10</t>
   </si>
   <si>
     <t>炼金术提升1级</t>
@@ -1908,7 +1921,7 @@
     <t>钻孔技术+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_11</t>
+    <t>ui://ItemPKG/college_11</t>
   </si>
   <si>
     <t>钻孔技术提升1级</t>
@@ -1917,7 +1930,7 @@
     <t>多层建筑+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_12</t>
+    <t>ui://ItemPKG/college_12</t>
   </si>
   <si>
     <t>多层建筑提升1级</t>
@@ -1926,7 +1939,7 @@
     <t>金矿开采+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_13</t>
+    <t>ui://ItemPKG/college_13</t>
   </si>
   <si>
     <t>金矿开采提升1级</t>
@@ -1935,7 +1948,7 @@
     <t>车轮+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_14</t>
+    <t>ui://ItemPKG/college_14</t>
   </si>
   <si>
     <t>车轮提升1级</t>
@@ -1944,7 +1957,7 @@
     <t>筒车灌溉+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_15</t>
+    <t>ui://ItemPKG/college_15</t>
   </si>
   <si>
     <t>筒车灌溉提升1级</t>
@@ -1953,7 +1966,7 @@
     <t>锯木工业+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_16</t>
+    <t>ui://ItemPKG/college_16</t>
   </si>
   <si>
     <t>锯木工业提升1级</t>
@@ -1962,7 +1975,7 @@
     <t>电子农业+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_17</t>
+    <t>ui://ItemPKG/college_17</t>
   </si>
   <si>
     <t>机械化农业提升1级</t>
@@ -1971,7 +1984,7 @@
     <t>工程学+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_18</t>
+    <t>ui://ItemPKG/college_18</t>
   </si>
   <si>
     <t>工程学提升1级</t>
@@ -1980,7 +1993,7 @@
     <t>电子伐木工程+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_19</t>
+    <t>ui://ItemPKG/college_19</t>
   </si>
   <si>
     <t>机械伐木工程提升1级</t>
@@ -1989,7 +2002,7 @@
     <t>数学理论+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_20</t>
+    <t>ui://ItemPKG/college_20</t>
   </si>
   <si>
     <t>数学理论提升1级</t>
@@ -1998,7 +2011,7 @@
     <t>露天采石+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_21</t>
+    <t>ui://ItemPKG/college_21</t>
   </si>
   <si>
     <t>露天采石提升1级</t>
@@ -2007,7 +2020,7 @@
     <t>铸币+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_22</t>
+    <t>ui://ItemPKG/college_22</t>
   </si>
   <si>
     <t>铸币提升1级</t>
@@ -2016,7 +2029,7 @@
     <t>起重机+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_23</t>
+    <t>ui://ItemPKG/college_23</t>
   </si>
   <si>
     <t>起重机提升1级</t>
@@ -2025,7 +2038,7 @@
     <t>电子发展+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_24</t>
+    <t>ui://ItemPKG/college_24</t>
   </si>
   <si>
     <t>电子发展提升1级</t>
@@ -2034,7 +2047,7 @@
     <t>竖井开采法+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_25</t>
+    <t>ui://ItemPKG/college_25</t>
   </si>
   <si>
     <t>竖井开采法提升1级</t>
@@ -2043,7 +2056,7 @@
     <t>辎重马车+1</t>
   </si>
   <si>
-    <t>ui://01_4_prop/college_26</t>
+    <t>ui://ItemPKG/college_26</t>
   </si>
   <si>
     <t>辎重马车提升1级</t>
@@ -2067,7 +2080,7 @@
     <t>稻谷飘香</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_4201</t>
+    <t>ui://ItemPKG/item_4201</t>
   </si>
   <si>
     <t>使用后可永久获得【感恩丰收】铭牌</t>
@@ -2079,7 +2092,7 @@
     <t>悠扬绝旋</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_4202</t>
+    <t>ui://ItemPKG/item_4202</t>
   </si>
   <si>
     <t>使用后可永久获得【极绝旋律】铭牌</t>
@@ -2091,7 +2104,7 @@
     <t>春意盎然</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_4203</t>
+    <t>ui://ItemPKG/item_4203</t>
   </si>
   <si>
     <t>使用后可永久获得【芬芳艳丽】铭牌</t>
@@ -2133,7 +2146,7 @@
     <t>冬去春来</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_4401</t>
+    <t>ui://ItemPKG/item_4401</t>
   </si>
   <si>
     <t>使用后可获得春意盎然聊天框</t>
@@ -2142,7 +2155,7 @@
     <t>柠檬汽水</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_4402</t>
+    <t>ui://ItemPKG/item_4402</t>
   </si>
   <si>
     <t>使用后可获得柠檬气泡聊天框</t>
@@ -2151,7 +2164,7 @@
     <t>冬日倩影</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_4403</t>
+    <t>ui://ItemPKG/item_4403</t>
   </si>
   <si>
     <t>使用后可获得小雪人聊天框</t>
@@ -2160,7 +2173,7 @@
     <t>宝石原石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_2501</t>
+    <t>ui://ItemPKG/item_2501</t>
   </si>
   <si>
     <t>宝石原石，用于铁匠铺打造宝石；可从净化古龙、联盟圣兽、市场获得</t>
@@ -2211,7 +2224,7 @@
     <t>森林宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20006</t>
+    <t>ui://ItemPKG/item_20006</t>
   </si>
   <si>
     <t>蕴含森林力量的宝石</t>
@@ -2220,7 +2233,7 @@
     <t>攻·森林宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20016</t>
+    <t>ui://ItemPKG/item_20016</t>
   </si>
   <si>
     <t>蕴含无穷无尽森林力量的宝石</t>
@@ -2229,19 +2242,19 @@
     <t>守·森林宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20026</t>
+    <t>ui://ItemPKG/item_20026</t>
   </si>
   <si>
     <t>战·森林宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20036</t>
+    <t>ui://ItemPKG/item_20036</t>
   </si>
   <si>
     <t>海洋宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20004</t>
+    <t>ui://ItemPKG/item_20004</t>
   </si>
   <si>
     <t>蕴含海洋力量的宝石</t>
@@ -2250,7 +2263,7 @@
     <t>攻·海洋宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20014</t>
+    <t>ui://ItemPKG/item_20014</t>
   </si>
   <si>
     <t>蕴含无穷无尽海洋力量的宝石</t>
@@ -2259,19 +2272,19 @@
     <t>守·海洋宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20024</t>
+    <t>ui://ItemPKG/item_20024</t>
   </si>
   <si>
     <t>战·海洋宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20034</t>
+    <t>ui://ItemPKG/item_20034</t>
   </si>
   <si>
     <t>天空宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20007</t>
+    <t>ui://ItemPKG/item_20007</t>
   </si>
   <si>
     <t>蕴含天空力量的宝石</t>
@@ -2280,7 +2293,7 @@
     <t>攻·天空宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20017</t>
+    <t>ui://ItemPKG/item_20017</t>
   </si>
   <si>
     <t>蕴含无穷无尽天空力量的宝石</t>
@@ -2289,19 +2302,19 @@
     <t>守·天空宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20027</t>
+    <t>ui://ItemPKG/item_20027</t>
   </si>
   <si>
     <t>战·天空宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20037</t>
+    <t>ui://ItemPKG/item_20037</t>
   </si>
   <si>
     <t>和平宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20001</t>
+    <t>ui://ItemPKG/item_20001</t>
   </si>
   <si>
     <t>蕴含净化力量的宝石</t>
@@ -2310,7 +2323,7 @@
     <t>攻·和平宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20011</t>
+    <t>ui://ItemPKG/item_20011</t>
   </si>
   <si>
     <t>蕴含无穷无尽净化力量的宝石</t>
@@ -2319,19 +2332,19 @@
     <t>守·和平宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20021</t>
+    <t>ui://ItemPKG/item_20021</t>
   </si>
   <si>
     <t>战·和平宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20031</t>
+    <t>ui://ItemPKG/item_20031</t>
   </si>
   <si>
     <t>英勇宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20003</t>
+    <t>ui://ItemPKG/item_20003</t>
   </si>
   <si>
     <t>蕴含勇气力量的宝石</t>
@@ -2340,7 +2353,7 @@
     <t>攻·英勇宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20013</t>
+    <t>ui://ItemPKG/item_20013</t>
   </si>
   <si>
     <t>蕴含无穷无尽勇气力量的宝石</t>
@@ -2349,19 +2362,19 @@
     <t>守·英勇宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20023</t>
+    <t>ui://ItemPKG/item_20023</t>
   </si>
   <si>
     <t>战·英勇宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20033</t>
+    <t>ui://ItemPKG/item_20033</t>
   </si>
   <si>
     <t>正义宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20002</t>
+    <t>ui://ItemPKG/item_20002</t>
   </si>
   <si>
     <t>蕴含正义力量的宝石</t>
@@ -2370,7 +2383,7 @@
     <t>攻·正义宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20012</t>
+    <t>ui://ItemPKG/item_20012</t>
   </si>
   <si>
     <t>蕴含无穷无尽正义力量的宝石</t>
@@ -2379,19 +2392,19 @@
     <t>守·正义宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20022</t>
+    <t>ui://ItemPKG/item_20022</t>
   </si>
   <si>
     <t>战·正义宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20032</t>
+    <t>ui://ItemPKG/item_20032</t>
   </si>
   <si>
     <t>光明宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20005</t>
+    <t>ui://ItemPKG/item_20005</t>
   </si>
   <si>
     <t>蕴含光明力量的宝石</t>
@@ -2400,7 +2413,7 @@
     <t>攻·光明宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20015</t>
+    <t>ui://ItemPKG/item_20015</t>
   </si>
   <si>
     <t>蕴含无穷无尽光明力量的宝石</t>
@@ -2409,13 +2422,13 @@
     <t>守·光明宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20025</t>
+    <t>ui://ItemPKG/item_20025</t>
   </si>
   <si>
     <t>战·光明宝石</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_20035</t>
+    <t>ui://ItemPKG/item_20035</t>
   </si>
   <si>
     <t>赛亚</t>
@@ -3084,7 +3097,7 @@
     <t>赛亚雕像</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_statue01</t>
+    <t>ui://ItemPKG/item_statue01</t>
   </si>
   <si>
     <t>赛亚雕像，用于英雄的技能升级</t>
@@ -3456,7 +3469,7 @@
     <t>绿色雕像</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_hero065</t>
+    <t>ui://ItemPKG/item_hero065</t>
   </si>
   <si>
     <t>绿色通用雕像</t>
@@ -3477,7 +3490,7 @@
     <t>金色雕像</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_hero066</t>
+    <t>ui://ItemPKG/item_hero066</t>
   </si>
   <si>
     <t>金色通用雕像,适用于珍稀品质英雄技能的升级</t>
@@ -3486,7 +3499,7 @@
     <t>红色雕像</t>
   </si>
   <si>
-    <t>ui://01_4_prop/item_hero067</t>
+    <t>ui://ItemPKG/item_hero067</t>
   </si>
   <si>
     <t>红色通用雕像,适用于超凡品质英雄技能的升级</t>
@@ -3813,7 +3826,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -5211,11 +5224,11 @@
   <dimension ref="A1:F560"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C224" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C243" sqref="C243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
